--- a/T213Inventory/Book2.xlsx
+++ b/T213Inventory/Book2.xlsx
@@ -347,23 +347,44 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac">
+  <dimension ref="A1:A5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row spans="1:1" x14ac:dyDescent="0.25" outlineLevel="0" r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row spans="1:1" x14ac:dyDescent="0.25" outlineLevel="0" r="2">
       <c r="A2" s="1" t="s">
         <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>joij</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>joij2</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>joij</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/T213Inventory/Book2.xlsx
+++ b/T213Inventory/Book2.xlsx
@@ -348,7 +348,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="A2" sqref="A2"/>
@@ -369,19 +369,12 @@
     <row outlineLevel="0" r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>joij</t>
+          <t>Joe</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="4">
       <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>joij2</t>
-        </is>
-      </c>
-    </row>
-    <row outlineLevel="0" r="5">
-      <c r="A5" s="1" t="inlineStr">
         <is>
           <t>joij</t>
         </is>
